--- a/Documents/Personal files/HP/Tidsrapport HP v14.xlsx
+++ b/Documents/Personal files/HP/Tidsrapport HP v14.xlsx
@@ -40,9 +40,6 @@
     <t>Vecka:</t>
   </si>
   <si>
-    <t>2015-03-23 - 2015-03-29</t>
-  </si>
-  <si>
     <t>Tid (h)</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>Planeringsmöte</t>
+  </si>
+  <si>
+    <t>2015-03-30 - 2015-04-05</t>
   </si>
 </sst>
 </file>
@@ -187,22 +187,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,12 +523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -537,52 +537,52 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <v>14</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="19"/>
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="15"/>
+      <c r="B5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>42093</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="12">
@@ -602,7 +602,7 @@
         <v>42094</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="12">
@@ -614,7 +614,7 @@
         <v>42095</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="12">
@@ -626,7 +626,7 @@
         <v>42096</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="12">
@@ -637,8 +637,8 @@
       <c r="A13" s="11">
         <v>42097</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
         <f>D9+D10+D11+D12+D13+D14+D15</f>
@@ -946,6 +946,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -954,12 +960,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
